--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_45.qasm_rb2_archsize7_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_45.qasm_rb2_archsize7_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1666"/>
+  <dimension ref="A1:N1667"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.573201894760132</v>
+        <v>0.002698898315429688</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.06489872932434082</v>
+        <v>0.001019001007080078</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09056925773620605</v>
+        <v>0.1027839183807373</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(3, 0), (4, 0), (5, 2), (4, 1), (6, 3), (4, 2), (5, 5), (3, 3), (4, 4), (6, 4), (5, 1), (5, 6), (3, 5), (3, 6), (1, 5), (2, 4), (1, 3), (0, 5), (2, 2), (2, 3), (1, 4), (2, 0), (2, 6), (0, 4), (2, 5), (4, 5), (3, 4), (5, 4), (4, 6), (6, 6), (0, 6), (5, 3), (3, 2), (3, 1), (6, 5), (4, 3), (6, 2), (0, 3), (0, 2), (0, 0), (2, 1), (1, 2), (1, 0), (1, 1), (0, 1)]</t>
+          <t>[[3, 0], [4, 0], [5, 2], [4, 1], [6, 3], [4, 2], [5, 5], [3, 3], [4, 4], [6, 4], [5, 1], [5, 6], [3, 5], [3, 6], [1, 5], [2, 4], [1, 3], [0, 5], [2, 2], [2, 3], [1, 4], [2, 0], [2, 6], [0, 4], [2, 5], [4, 5], [3, 4], [5, 4], [4, 6], [6, 6], [0, 6], [5, 3], [3, 2], [3, 1], [6, 5], [4, 3], [6, 2], [0, 3], [0, 2], [0, 0], [2, 1], [1, 2], [1, 0], [1, 1], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -900,7 +900,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 0), (6, 3), (4, 1), (5, 5), (4, 2), (4, 4), (3, 3), (3, 5), (6, 4), (5, 1), (5, 6), (1, 5), (3, 6), (6, 1), (2, 4), (1, 4), (0, 5), (2, 3), (0, 0), (2, 5), (0, 4), (2, 6), (4, 5), (3, 4), (4, 3), (4, 6), (5, 4), (6, 5), (6, 6), (0, 6), (5, 3), (3, 2), (3, 0), (2, 0), (2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (3, 1)]</t>
+          <t>[[5, 2], [4, 0], [6, 3], [4, 1], [5, 5], [4, 2], [4, 4], [3, 3], [3, 5], [6, 4], [5, 1], [5, 6], [1, 5], [3, 6], [6, 1], [2, 4], [1, 4], [0, 5], [2, 3], [0, 0], [2, 5], [0, 4], [2, 6], [4, 5], [3, 4], [4, 3], [4, 6], [5, 4], [6, 5], [6, 6], [0, 6], [5, 3], [3, 2], [3, 0], [2, 0], [2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 0), (6, 3), (4, 1), (5, 5), (4, 2), (4, 4), (3, 3), (3, 5), (6, 4), (5, 1), (5, 6), (2, 2), (2, 3), (6, 1), (2, 0), (3, 4), (2, 1), (3, 2), (3, 0), (4, 5), (3, 1), (4, 6), (4, 3), (5, 4), (5, 3), (6, 6), (2, 4), (3, 6), (2, 5), (0, 6), (1, 5), (1, 4), (0, 3), (0, 2), (1, 1), (1, 0), (0, 0), (0, 1), (1, 2), (1, 3), (0, 4), (0, 5), (1, 6), (2, 6)]</t>
+          <t>[[5, 2], [4, 0], [6, 3], [4, 1], [5, 5], [4, 2], [4, 4], [3, 3], [3, 5], [6, 4], [5, 1], [5, 6], [2, 2], [2, 3], [6, 1], [2, 0], [3, 4], [2, 1], [3, 2], [3, 0], [4, 5], [3, 1], [4, 6], [4, 3], [5, 4], [5, 3], [6, 6], [2, 4], [3, 6], [2, 5], [0, 6], [1, 5], [1, 4], [0, 3], [0, 2], [1, 1], [1, 0], [0, 0], [0, 1], [1, 2], [1, 3], [0, 4], [0, 5], [1, 6], [2, 6]]</t>
         </is>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 0), (6, 3), (4, 1), (3, 0), (4, 2), (1, 5), (6, 4), (0, 6), (3, 6), (5, 1), (0, 5), (2, 0), (0, 3), (6, 1), (5, 3), (1, 4), (0, 4), (3, 1), (5, 0), (2, 5), (6, 0), (2, 6), (5, 6), (5, 5), (4, 5), (4, 4), (3, 4), (3, 3), (2, 3), (2, 2), (1, 2), (1, 1), (0, 1), (0, 0), (1, 0), (0, 2), (2, 1), (1, 3), (3, 2), (2, 4), (4, 3), (3, 5), (5, 4), (4, 6)]</t>
+          <t>[[5, 2], [4, 0], [6, 3], [4, 1], [3, 0], [4, 2], [1, 5], [6, 4], [0, 6], [3, 6], [5, 1], [0, 5], [2, 0], [0, 3], [6, 1], [5, 3], [1, 4], [0, 4], [3, 1], [5, 0], [2, 5], [6, 0], [2, 6], [5, 6], [5, 5], [4, 5], [4, 4], [3, 4], [3, 3], [2, 3], [2, 2], [1, 2], [1, 1], [0, 1], [0, 0], [1, 0], [0, 2], [2, 1], [1, 3], [3, 2], [2, 4], [4, 3], [3, 5], [5, 4], [4, 6]]</t>
         </is>
       </c>
     </row>
@@ -3059,7 +3059,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 0), (6, 3), (4, 1), (3, 0), (4, 2), (0, 6), (6, 4), (1, 6), (3, 2), (5, 1), (3, 1), (3, 3), (4, 3), (6, 1), (5, 3), (5, 4), (6, 2), (5, 6), (5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6)]</t>
+          <t>[[5, 2], [4, 0], [6, 3], [4, 1], [3, 0], [4, 2], [0, 6], [6, 4], [1, 6], [3, 2], [5, 1], [3, 1], [3, 3], [4, 3], [6, 1], [5, 3], [5, 4], [6, 2], [5, 6], [5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6]]</t>
         </is>
       </c>
     </row>
@@ -3920,7 +3920,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 0), (3, 0), (4, 1), (3, 2), (4, 2), (0, 6), (3, 3), (1, 6), (3, 1), (5, 1), (4, 3), (5, 3), (5, 0), (6, 4), (6, 3), (5, 6), (5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5)]</t>
+          <t>[[5, 2], [4, 0], [3, 0], [4, 1], [3, 2], [4, 2], [0, 6], [3, 3], [1, 6], [3, 1], [5, 1], [4, 3], [5, 3], [5, 0], [6, 4], [6, 3], [5, 6], [5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5]]</t>
         </is>
       </c>
     </row>
@@ -4853,7 +4853,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 0), (3, 0), (4, 1), (3, 2), (3, 1), (0, 6), (3, 3), (1, 6), (4, 3), (5, 1), (4, 2), (6, 4), (6, 3), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2)]</t>
+          <t>[[5, 2], [4, 0], [3, 0], [4, 1], [3, 2], [3, 1], [0, 6], [3, 3], [1, 6], [4, 3], [5, 1], [4, 2], [6, 4], [6, 3], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2]]</t>
         </is>
       </c>
     </row>
@@ -5917,7 +5917,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>[(4, 1), (4, 0), (5, 1), (3, 1), (5, 0), (6, 0), (3, 0), (3, 3), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2)]</t>
+          <t>[[4, 1], [4, 0], [5, 1], [3, 1], [5, 0], [6, 0], [3, 0], [3, 3], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2]]</t>
         </is>
       </c>
     </row>
@@ -7103,7 +7103,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>[(5, 1), (0, 6), (6, 0), (4, 0), (3, 0), (4, 1), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2), (5, 0), (3, 1)]</t>
+          <t>[[5, 1], [0, 6], [6, 0], [4, 0], [3, 0], [4, 1], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2], [5, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -8350,7 +8350,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>[(5, 1), (4, 0), (3, 0), (4, 1), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2), (5, 0), (3, 1), (6, 0), (3, 3)]</t>
+          <t>[[5, 1], [4, 0], [3, 0], [4, 1], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2], [5, 0], [3, 1], [6, 0], [3, 3]]</t>
         </is>
       </c>
     </row>
@@ -9597,7 +9597,7 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>[(3, 0), (4, 1), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2), (5, 0), (3, 1), (4, 0), (3, 3), (6, 0), (5, 1)]</t>
+          <t>[[3, 0], [4, 1], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2], [5, 0], [3, 1], [4, 0], [3, 3], [6, 0], [5, 1]]</t>
         </is>
       </c>
     </row>
@@ -10807,7 +10807,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2), (4, 1), (3, 0), (5, 0), (3, 1), (4, 0), (3, 3), (6, 0), (5, 1)]</t>
+          <t>[[5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2], [4, 1], [3, 0], [5, 0], [3, 1], [4, 0], [3, 3], [6, 0], [5, 1]]</t>
         </is>
       </c>
     </row>
@@ -11912,7 +11912,7 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>[(6, 4), (6, 3), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (6, 6), (3, 3), (4, 3), (3, 2), (4, 1), (3, 0), (5, 0), (3, 1), (4, 0), (4, 2), (6, 0), (5, 1)]</t>
+          <t>[[6, 4], [6, 3], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [6, 6], [3, 3], [4, 3], [3, 2], [4, 1], [3, 0], [5, 0], [3, 1], [4, 0], [4, 2], [6, 0], [5, 1]]</t>
         </is>
       </c>
     </row>
@@ -12928,7 +12928,7 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>[(5, 6), (5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (6, 6), (5, 0), (5, 3), (6, 2), (3, 2), (3, 3), (4, 3), (3, 0), (4, 1), (3, 1), (4, 0), (4, 2), (5, 1), (5, 2), (6, 0), (6, 1)]</t>
+          <t>[[5, 6], [5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [6, 6], [5, 0], [5, 3], [6, 2], [3, 2], [3, 3], [4, 3], [3, 0], [4, 1], [3, 1], [4, 0], [4, 2], [5, 1], [5, 2], [6, 0], [6, 1]]</t>
         </is>
       </c>
     </row>
@@ -13831,7 +13831,7 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>[(4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (3, 3), (5, 5), (5, 4), (6, 5), (6, 6), (5, 0), (5, 3), (6, 2), (3, 2), (3, 1), (4, 3), (3, 0), (4, 1), (4, 0), (4, 2), (5, 1), (5, 2), (6, 1), (6, 0), (6, 3)]</t>
+          <t>[[4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [3, 3], [5, 5], [5, 4], [6, 5], [6, 6], [5, 0], [5, 3], [6, 2], [3, 2], [3, 1], [4, 3], [3, 0], [4, 1], [4, 0], [4, 2], [5, 1], [5, 2], [6, 1], [6, 0], [6, 3]]</t>
         </is>
       </c>
     </row>
@@ -14636,7 +14636,7 @@
     <row r="1347">
       <c r="A1347" t="inlineStr">
         <is>
-          <t>[(2, 5), (0, 6), (2, 4), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (1, 5), (2, 6), (1, 6), (3, 4), (3, 3), (3, 2), (3, 6), (3, 5), (5, 5), (5, 4), (6, 5), (6, 6), (5, 0), (5, 3), (6, 2), (3, 0), (3, 1), (4, 3), (4, 0), (4, 1), (4, 2), (4, 4), (5, 1), (5, 2), (6, 1), (6, 0), (6, 3)]</t>
+          <t>[[2, 5], [0, 6], [2, 4], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [1, 5], [2, 6], [1, 6], [3, 4], [3, 3], [3, 2], [3, 6], [3, 5], [5, 5], [5, 4], [6, 5], [6, 6], [5, 0], [5, 3], [6, 2], [3, 0], [3, 1], [4, 3], [4, 0], [4, 1], [4, 2], [4, 4], [5, 1], [5, 2], [6, 1], [6, 0], [6, 3]]</t>
         </is>
       </c>
     </row>
@@ -15464,7 +15464,7 @@
     <row r="1436">
       <c r="A1436" t="inlineStr">
         <is>
-          <t>[(6, 3), (6, 2), (5, 1), (4, 1), (3, 2), (2, 2), (1, 1), (0, 1), (0, 2), (1, 2), (2, 1), (3, 1), (4, 2), (5, 2), (6, 1), (5, 3), (6, 4), (4, 3), (0, 3), (0, 0), (1, 6), (3, 4), (1, 3), (3, 0), (3, 6), (1, 0), (0, 4), (2, 3), (4, 4), (3, 3), (5, 0), (1, 5), (6, 0), (2, 0), (4, 0), (0, 5), (2, 4), (4, 5), (3, 5), (4, 6), (5, 4), (5, 5), (6, 5), (1, 4), (5, 6)]</t>
+          <t>[[6, 3], [6, 2], [5, 1], [4, 1], [3, 2], [2, 2], [1, 1], [0, 1], [0, 2], [1, 2], [2, 1], [3, 1], [4, 2], [5, 2], [6, 1], [5, 3], [6, 4], [4, 3], [0, 3], [0, 0], [1, 6], [3, 4], [1, 3], [3, 0], [3, 6], [1, 0], [0, 4], [2, 3], [4, 4], [3, 3], [5, 0], [1, 5], [6, 0], [2, 0], [4, 0], [0, 5], [2, 4], [4, 5], [3, 5], [4, 6], [5, 4], [5, 5], [6, 5], [1, 4], [5, 6]]</t>
         </is>
       </c>
     </row>
@@ -16287,7 +16287,7 @@
     <row r="1525">
       <c r="A1525" t="inlineStr">
         <is>
-          <t>[(2, 0), (2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (3, 1), (3, 0), (4, 0), (0, 6), (0, 4), (5, 3), (6, 4), (4, 3), (1, 4), (2, 3), (1, 6), (3, 4), (2, 4), (5, 0), (3, 6), (2, 5), (2, 6), (3, 5), (4, 4), (4, 2), (0, 5), (1, 5), (4, 1), (3, 2), (3, 3), (0, 0), (4, 5), (4, 6), (5, 5), (5, 6), (5, 4), (6, 5), (6, 3), (5, 2), (6, 6)]</t>
+          <t>[[2, 0], [2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [3, 1], [3, 0], [4, 0], [0, 6], [0, 4], [5, 3], [6, 4], [4, 3], [1, 4], [2, 3], [1, 6], [3, 4], [2, 4], [5, 0], [3, 6], [2, 5], [2, 6], [3, 5], [4, 4], [4, 2], [0, 5], [1, 5], [4, 1], [3, 2], [3, 3], [0, 0], [4, 5], [4, 6], [5, 5], [5, 6], [5, 4], [6, 5], [6, 3], [5, 2], [6, 6]]</t>
         </is>
       </c>
     </row>
@@ -16978,7 +16978,7 @@
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>[(2, 1), (1, 2), (1, 1), (1, 0), (0, 1), (2, 2), (2, 3), (2, 0), (0, 6), (0, 4), (3, 3), (4, 0), (4, 1), (1, 6), (2, 4), (5, 3), (6, 4), (4, 3), (2, 5), (3, 4), (2, 6), (3, 5), (4, 4), (5, 0), (3, 6), (4, 5), (4, 6), (5, 5), (4, 2), (5, 1), (5, 4), (5, 6), (5, 2), (6, 1), (6, 2), (0, 5), (1, 5), (0, 0), (0, 3), (1, 3), (0, 2), (3, 0), (3, 1), (1, 4), (3, 2)]</t>
+          <t>[[2, 1], [1, 2], [1, 1], [1, 0], [0, 1], [2, 2], [2, 3], [2, 0], [0, 6], [0, 4], [3, 3], [4, 0], [4, 1], [1, 6], [2, 4], [5, 3], [6, 4], [4, 3], [2, 5], [3, 4], [2, 6], [3, 5], [4, 4], [5, 0], [3, 6], [4, 5], [4, 6], [5, 5], [4, 2], [5, 1], [5, 4], [5, 6], [5, 2], [6, 1], [6, 2], [0, 5], [1, 5], [0, 0], [0, 3], [1, 3], [0, 2], [3, 0], [3, 1], [1, 4], [3, 2]]</t>
         </is>
       </c>
     </row>
@@ -17417,110 +17417,120 @@
     <row r="1662">
       <c r="A1662" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B1662" t="n">
-        <v>269</v>
+        <v>0.9828065580313875</v>
       </c>
     </row>
     <row r="1663">
       <c r="A1663" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B1663" t="n">
-        <v>1364</v>
+        <v>269</v>
       </c>
     </row>
     <row r="1664">
       <c r="A1664" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B1664" t="n">
-        <v>19</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="1665">
       <c r="A1665" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B1665" t="n">
-        <v>7.929696798324585</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1666">
       <c r="A1666" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B1666" t="n">
+        <v>0.4036238193511963</v>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B1666" t="inlineStr">
+      <c r="B1667" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C1666" t="inlineStr">
+      <c r="C1667" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D1666" t="inlineStr">
+      <c r="D1667" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E1666" t="inlineStr">
+      <c r="E1667" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F1666" t="inlineStr">
+      <c r="F1667" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G1666" t="inlineStr">
+      <c r="G1667" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H1666" t="inlineStr">
+      <c r="H1667" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I1666" t="inlineStr">
+      <c r="I1667" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J1666" t="inlineStr">
+      <c r="J1667" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K1666" t="inlineStr">
+      <c r="K1667" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L1666" t="inlineStr">
+      <c r="L1667" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M1666" t="inlineStr">
+      <c r="M1667" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N1666" t="inlineStr">
+      <c r="N1667" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
